--- a/Data/Export/Common/Buff_状态.xlsx
+++ b/Data/Export/Common/Buff_状态.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C8B85C-618B-4057-9F4C-09B2DCD0180D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86DC248-0A45-43B3-BEED-90F73F84D9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,9 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>actionEntities</t>
-  </si>
-  <si>
     <t>效果集合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,6 +121,17 @@
   </si>
   <si>
     <t>0,20,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aobj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffEffects</t>
+  </si>
+  <si>
+    <t>[{class:"Stun"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,7 +616,7 @@
   <dimension ref="A1:X69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -619,7 +627,7 @@
     <col min="5" max="6" width="9.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="48.25" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="95.375" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
@@ -638,20 +646,20 @@
         <v>1</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="14"/>
       <c r="G1" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J1" s="9"/>
       <c r="K1" s="8"/>
@@ -708,20 +716,20 @@
         <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="8"/>
@@ -750,10 +758,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>4</v>
@@ -762,10 +770,10 @@
         <v>3</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
@@ -787,10 +795,13 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="4"/>
@@ -819,10 +830,10 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="4"/>

--- a/Data/Export/Common/Buff_状态.xlsx
+++ b/Data/Export/Common/Buff_状态.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86DC248-0A45-43B3-BEED-90F73F84D9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F9303-0D2F-445E-8A6B-6ED61A298B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffs" sheetId="36" r:id="rId1"/>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,20,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aobj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +128,10 @@
   </si>
   <si>
     <t>[{class:"Stun"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,12,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,28 +616,28 @@
   <dimension ref="A1:X69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="95.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="48.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="95.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="14" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -677,7 +677,7 @@
       <c r="W1" s="9"/>
       <c r="X1" s="7"/>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -705,7 +705,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -729,7 +729,7 @@
         <v>19</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="8"/>
@@ -747,7 +747,7 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
     </row>
-    <row r="4" spans="1:24" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -798,10 +798,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="4"/>
@@ -814,7 +814,7 @@
       <c r="U5" s="4"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -833,7 +833,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="4"/>
@@ -846,7 +846,7 @@
       <c r="U6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -865,7 +865,7 @@
       <c r="U7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -884,7 +884,7 @@
       <c r="U8" s="4"/>
       <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -903,7 +903,7 @@
       <c r="U9" s="4"/>
       <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -922,7 +922,7 @@
       <c r="U10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -941,7 +941,7 @@
       <c r="U11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -960,7 +960,7 @@
       <c r="U12" s="4"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -979,7 +979,7 @@
       <c r="U13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -998,7 +998,7 @@
       <c r="U14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1017,7 +1017,7 @@
       <c r="U15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1036,7 +1036,7 @@
       <c r="U16" s="4"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1055,7 +1055,7 @@
       <c r="U17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1074,7 +1074,7 @@
       <c r="U18" s="4"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1093,7 +1093,7 @@
       <c r="U19" s="4"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1112,7 +1112,7 @@
       <c r="U20" s="4"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1131,7 +1131,7 @@
       <c r="U21" s="4"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1150,7 +1150,7 @@
       <c r="U22" s="4"/>
       <c r="W22" s="4"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1169,7 +1169,7 @@
       <c r="U23" s="4"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1188,7 +1188,7 @@
       <c r="U24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1207,7 +1207,7 @@
       <c r="U25" s="4"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1226,7 +1226,7 @@
       <c r="U26" s="4"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1245,7 +1245,7 @@
       <c r="U27" s="4"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1264,7 +1264,7 @@
       <c r="U28" s="4"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1283,7 +1283,7 @@
       <c r="U29" s="4"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1302,7 +1302,7 @@
       <c r="U30" s="4"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1321,7 +1321,7 @@
       <c r="U31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1340,7 +1340,7 @@
       <c r="U32" s="4"/>
       <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1359,7 +1359,7 @@
       <c r="U33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1378,7 +1378,7 @@
       <c r="U34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1397,7 +1397,7 @@
       <c r="U35" s="4"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1416,7 +1416,7 @@
       <c r="U36" s="4"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1433,7 +1433,7 @@
       <c r="U37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1450,7 +1450,7 @@
       <c r="U38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1467,7 +1467,7 @@
       <c r="U39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1484,7 +1484,7 @@
       <c r="U40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -1501,7 +1501,7 @@
       <c r="U41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -1518,7 +1518,7 @@
       <c r="U42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -1535,7 +1535,7 @@
       <c r="U43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -1552,7 +1552,7 @@
       <c r="U44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -1569,7 +1569,7 @@
       <c r="U45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -1585,7 +1585,7 @@
       <c r="U46" s="4"/>
       <c r="W46" s="4"/>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -1596,7 +1596,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -1607,7 +1607,7 @@
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -1618,7 +1618,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -1629,7 +1629,7 @@
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -1640,7 +1640,7 @@
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
     </row>
-    <row r="52" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -1651,7 +1651,7 @@
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
     </row>
-    <row r="53" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -1662,7 +1662,7 @@
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
     </row>
-    <row r="54" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -1673,7 +1673,7 @@
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
     </row>
-    <row r="55" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -1684,7 +1684,7 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row r="56" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -1695,7 +1695,7 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
     </row>
-    <row r="57" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -1706,7 +1706,7 @@
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
     </row>
-    <row r="58" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -1717,7 +1717,7 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
     </row>
-    <row r="59" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -1728,7 +1728,7 @@
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
     </row>
-    <row r="60" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -1739,7 +1739,7 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
     </row>
-    <row r="61" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -1750,7 +1750,7 @@
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
     </row>
-    <row r="62" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -1761,7 +1761,7 @@
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
     </row>
-    <row r="63" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="63" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -1772,7 +1772,7 @@
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
     </row>
-    <row r="64" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -1783,7 +1783,7 @@
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
     </row>
-    <row r="65" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="65" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -1794,7 +1794,7 @@
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
     </row>
-    <row r="66" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -1805,7 +1805,7 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="67" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -1816,7 +1816,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="68" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -1827,7 +1827,7 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="69" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>

--- a/Data/Export/Common/Buff_状态.xlsx
+++ b/Data/Export/Common/Buff_状态.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F9303-0D2F-445E-8A6B-6ED61A298B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C5C302-CFE6-4250-AE3A-A9A162A8A103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffs" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,14 @@
   </si>
   <si>
     <t>0,12,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"Escape"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/Prefab/ef_buff_escape.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,7 +624,7 @@
   <dimension ref="A1:X69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -830,10 +838,13 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="4"/>
